--- a/CertificatesDetails.xlsx
+++ b/CertificatesDetails.xlsx
@@ -29,19 +29,19 @@
     <t>错误信息</t>
   </si>
   <si>
+    <t>14thoctober.com</t>
+  </si>
+  <si>
+    <t>取消申请</t>
+  </si>
+  <si>
+    <t>CANCELED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>nicholastest.alpha.com</t>
-  </si>
-  <si>
-    <t>取消申请</t>
-  </si>
-  <si>
-    <t>CANCELED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>14thoctober.com</t>
   </si>
   <si>
     <t>unatest1.unatest.com</t>
